--- a/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
+++ b/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aqwam\Documents\GitHub\Software-Libraries-Comparisons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBE8E48-F00E-4E2B-B4B9-000051B3463C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2E20EE-A74D-43FB-A918-C9FF6E12C72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="68">
-  <si>
-    <t>Developer</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="78">
   <si>
     <t>MyOriginsWorkshop (Aqwam Harish Aiman)</t>
   </si>
@@ -95,15 +92,6 @@
     <t>Deep Learning Support</t>
   </si>
   <si>
-    <t>Developer Certifications</t>
-  </si>
-  <si>
-    <t>Library</t>
-  </si>
-  <si>
-    <t>Partial (Feed Forward Network And LSTM)</t>
-  </si>
-  <si>
     <t>Partial (Feature Matrix / 2D Tensor Only)</t>
   </si>
   <si>
@@ -152,15 +140,6 @@
     <t>Highlighted Features</t>
   </si>
   <si>
-    <t>Contains A Variety Of Deep Reinforcement Learning Models, Deep Generative Models. Can Do Distributed Training (Data And Model Parallelism).</t>
-  </si>
-  <si>
-    <t>Recurrent Neural Networks</t>
-  </si>
-  <si>
-    <t>One Deep Reinforcement Learning Model (Deep Q Learning). Limited Pooling And Convolution Layers.</t>
-  </si>
-  <si>
     <t>Customizability</t>
   </si>
   <si>
@@ -179,9 +158,6 @@
     <t>Easy</t>
   </si>
   <si>
-    <t>Hard</t>
-  </si>
-  <si>
     <t>Scalability</t>
   </si>
   <si>
@@ -200,9 +176,6 @@
     <t>Stable</t>
   </si>
   <si>
-    <t>Beta</t>
-  </si>
-  <si>
     <t>License</t>
   </si>
   <si>
@@ -215,9 +188,6 @@
     <t>Developer Integrity</t>
   </si>
   <si>
-    <t>High. Transparent About Features, Limitations And Issues To The Public. Actively Maintained With A Strong Commitment To QA. If Any Promised Development Will Not Be Added, The Public Will Be Informed.</t>
-  </si>
-  <si>
     <t>Claims A New Library Similar To TensorFlow Will Be Developed, But There Are No Development For The Last 3 Years.</t>
   </si>
   <si>
@@ -236,10 +206,70 @@
     <t xml:space="preserve"> Machine Learning Certification From Stanford, Deep Learning Certification From DeepLearning.ai</t>
   </si>
   <si>
-    <t>Developer Education</t>
-  </si>
-  <si>
     <t>Same Previous</t>
+  </si>
+  <si>
+    <t>Average Training Speed For Neural Networks (in seconds)</t>
+  </si>
+  <si>
+    <t>Partial</t>
+  </si>
+  <si>
+    <t>Reinforcement Learning Support</t>
+  </si>
+  <si>
+    <t>Deep Generative Models. Can Do Distributed Training (Data And Model Parallelism).</t>
+  </si>
+  <si>
+    <t>Generative Models Support</t>
+  </si>
+  <si>
+    <t>Each Neural Network Nodes Can Be Customized Individually.</t>
+  </si>
+  <si>
+    <t>Hard (Nested Arrays And Functions Inside Function Parameters)</t>
+  </si>
+  <si>
+    <t>Incomplete</t>
+  </si>
+  <si>
+    <t>Partial (Generative Adversarial Networks And Some Of Its Variants)</t>
+  </si>
+  <si>
+    <t>Partial (Model-Free Deep Reinforcement Learning, Random Network Distillation, Experience Replays)</t>
+  </si>
+  <si>
+    <t>Relative Training Time To The DataPredict Library</t>
+  </si>
+  <si>
+    <t>Cross Compatible Libraries</t>
+  </si>
+  <si>
+    <t>Medium (Must Define The Input And Output Names. The Inputs And Outputs Must Stored As Dictionary.)</t>
+  </si>
+  <si>
+    <t>Library Name</t>
+  </si>
+  <si>
+    <t>Transparent About Features, Limitations And Issues To The Public. Actively Maintained With A Strong Commitment To QA. If Any Promised Development Will Not Be Added, The Public Will Be Informed.</t>
+  </si>
+  <si>
+    <t>Partial (Feed Forward Network And Recurrent Neural Network)</t>
+  </si>
+  <si>
+    <t>Partial (Deep Q Learning And Experience Replay)</t>
+  </si>
+  <si>
+    <t>Medium (Requires The Creation Of Individual Layers And A Separate Loss Function)</t>
+  </si>
+  <si>
+    <t>Developer's Certifications</t>
+  </si>
+  <si>
+    <t>Developer's Education</t>
+  </si>
+  <si>
+    <t>Developer's Name</t>
   </si>
 </sst>
 </file>
@@ -571,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -584,439 +614,560 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1">
-        <v>6</v>
-      </c>
-      <c r="E7" s="1">
-        <v>7</v>
-      </c>
-      <c r="F7" s="1">
-        <v>3</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1">
+        <v>6</v>
+      </c>
+      <c r="E9" s="1">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="1">
+        <v>9.6994580000125496E-5</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4.3973007000020002E-4</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.31039749999956E-4</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.3589270000045399E-5</v>
+      </c>
+      <c r="F18" s="1">
+        <v>9999999999</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1.2687179999784299E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="1">
+        <f xml:space="preserve"> $B$18 / B18</f>
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" ref="C19:G19" si="0" xml:space="preserve"> C18 / $B$18</f>
+        <v>4.5335530088344225</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3510007466374558</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.14010339546836345</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>103098544258731.38</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.13080297888570561</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
+++ b/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aqwam\Documents\GitHub\Software-Libraries-Comparisons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2E20EE-A74D-43FB-A918-C9FF6E12C72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED40EC51-F682-4E19-B49D-A296A87014C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="77">
   <si>
     <t>MyOriginsWorkshop (Aqwam Harish Aiman)</t>
   </si>
@@ -210,9 +210,6 @@
   </si>
   <si>
     <t>Average Training Speed For Neural Networks (in seconds)</t>
-  </si>
-  <si>
-    <t>Partial</t>
   </si>
   <si>
     <t>Reinforcement Learning Support</t>
@@ -604,7 +601,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -614,7 +611,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -637,7 +634,7 @@
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -660,7 +657,7 @@
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>54</v>
@@ -683,7 +680,7 @@
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>55</v>
@@ -732,13 +729,13 @@
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>18</v>
@@ -752,10 +749,10 @@
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -764,7 +761,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>15</v>
@@ -775,10 +772,10 @@
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
@@ -916,13 +913,13 @@
         <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>15</v>
@@ -965,13 +962,13 @@
         <v>39</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>39</v>
@@ -1028,7 +1025,7 @@
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B19" s="1">
         <f xml:space="preserve"> $B$18 / B18</f>
@@ -1095,15 +1092,15 @@
         <v>45</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>2</v>
@@ -1152,7 +1149,7 @@
         <v>49</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>13</v>

--- a/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
+++ b/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aqwam\Documents\GitHub\Software-Libraries-Comparisons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED40EC51-F682-4E19-B49D-A296A87014C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EEAD5B-BF96-461E-BF3C-E1E2693A2259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -164,9 +164,6 @@
     <t>Quality Assurance</t>
   </si>
   <si>
-    <t>Unit And Integration Tests. Numerical Analysis And Gradient Checking. Research Papers. Consultation With Experts. Uses Developer'S University Lecturer Notes.</t>
-  </si>
-  <si>
     <t>Unit And Integration Tests</t>
   </si>
   <si>
@@ -267,6 +264,9 @@
   </si>
   <si>
     <t>Developer's Name</t>
+  </si>
+  <si>
+    <t>Unit And Integration Tests. Numerical Analysis And Gradient Checking. Research Papers And Its Source Codes. Consultation With Experts. Uses Developer'S University Lecturer Notes.</t>
   </si>
 </sst>
 </file>
@@ -601,7 +601,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -611,7 +611,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -657,10 +657,10 @@
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>13</v>
@@ -680,13 +680,13 @@
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>14</v>
@@ -735,7 +735,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>18</v>
@@ -749,10 +749,10 @@
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -761,7 +761,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>15</v>
@@ -772,10 +772,10 @@
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
@@ -913,13 +913,13 @@
         <v>33</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>15</v>
@@ -962,13 +962,13 @@
         <v>39</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>39</v>
@@ -1002,7 +1002,7 @@
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="1">
         <v>9.6994580000125496E-5</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" s="1">
         <f xml:space="preserve"> $B$18 / B18</f>
@@ -1057,16 +1057,16 @@
         <v>41</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>14</v>
@@ -1077,30 +1077,30 @@
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>2</v>
@@ -1123,22 +1123,22 @@
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>15</v>
@@ -1146,25 +1146,25 @@
     </row>
     <row r="24" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
+++ b/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aqwam\Documents\GitHub\Software-Libraries-Comparisons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EEAD5B-BF96-461E-BF3C-E1E2693A2259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8403AE9D-994F-470D-8743-818D0AC26879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,12 +131,6 @@
     <t>Community</t>
   </si>
   <si>
-    <t>Roblox DevForum, Discord, Reddit, LinkedIn</t>
-  </si>
-  <si>
-    <t>Roblox DevForum</t>
-  </si>
-  <si>
     <t>Highlighted Features</t>
   </si>
   <si>
@@ -267,6 +261,12 @@
   </si>
   <si>
     <t>Unit And Integration Tests. Numerical Analysis And Gradient Checking. Research Papers And Its Source Codes. Consultation With Experts. Uses Developer'S University Lecturer Notes.</t>
+  </si>
+  <si>
+    <t>Roblox's DevForum, Discord, Reddit, LinkedIn</t>
+  </si>
+  <si>
+    <t>Roblox's DevForum</t>
   </si>
 </sst>
 </file>
@@ -601,7 +601,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -611,7 +611,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -657,10 +657,10 @@
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>13</v>
@@ -680,13 +680,13 @@
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>14</v>
@@ -735,7 +735,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>18</v>
@@ -749,10 +749,10 @@
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -761,7 +761,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>15</v>
@@ -772,10 +772,10 @@
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
@@ -890,36 +890,36 @@
         <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>15</v>
@@ -933,76 +933,76 @@
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="G17" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B18" s="1">
         <v>9.6994580000125496E-5</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B19" s="1">
         <f xml:space="preserve"> $B$18 / B18</f>
@@ -1054,19 +1054,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>14</v>
@@ -1077,30 +1077,30 @@
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>2</v>
@@ -1123,22 +1123,22 @@
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>15</v>
@@ -1146,25 +1146,25 @@
     </row>
     <row r="24" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
+++ b/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aqwam\Documents\GitHub\Software-Libraries-Comparisons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8403AE9D-994F-470D-8743-818D0AC26879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0828EBE6-83FD-46D3-AAD6-2EB983D5B7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -206,9 +206,6 @@
     <t>Reinforcement Learning Support</t>
   </si>
   <si>
-    <t>Deep Generative Models. Can Do Distributed Training (Data And Model Parallelism).</t>
-  </si>
-  <si>
     <t>Generative Models Support</t>
   </si>
   <si>
@@ -267,6 +264,9 @@
   </si>
   <si>
     <t>Roblox's DevForum</t>
+  </si>
+  <si>
+    <t>Can Do Distributed Training (Data And Model Parallelism).</t>
   </si>
 </sst>
 </file>
@@ -601,7 +601,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -611,7 +611,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -657,7 +657,7 @@
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>51</v>
@@ -680,7 +680,7 @@
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>52</v>
@@ -735,7 +735,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>18</v>
@@ -752,7 +752,7 @@
         <v>55</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -761,7 +761,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>15</v>
@@ -772,10 +772,10 @@
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
@@ -890,22 +890,22 @@
         <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -913,13 +913,13 @@
         <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>15</v>
@@ -962,13 +962,13 @@
         <v>37</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>37</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="1">
         <f xml:space="preserve"> $B$18 / B18</f>
@@ -1057,7 +1057,7 @@
         <v>39</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>13</v>
@@ -1092,15 +1092,15 @@
         <v>42</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>2</v>
@@ -1149,7 +1149,7 @@
         <v>46</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>13</v>

--- a/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
+++ b/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aqwam\Documents\GitHub\Software-Libraries-Comparisons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0828EBE6-83FD-46D3-AAD6-2EB983D5B7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBBBF42-59E5-41EB-B642-1655F36D3BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,9 +101,6 @@
     <t>Partial (Limited Number Of Features For Feature Matrix And 3 Layers Only)</t>
   </si>
   <si>
-    <t>Minimum Lines To Train A Model</t>
-  </si>
-  <si>
     <t>Tutorials</t>
   </si>
   <si>
@@ -257,9 +254,6 @@
     <t>Developer's Name</t>
   </si>
   <si>
-    <t>Unit And Integration Tests. Numerical Analysis And Gradient Checking. Research Papers And Its Source Codes. Consultation With Experts. Uses Developer'S University Lecturer Notes.</t>
-  </si>
-  <si>
     <t>Roblox's DevForum, Discord, Reddit, LinkedIn</t>
   </si>
   <si>
@@ -267,6 +261,12 @@
   </si>
   <si>
     <t>Can Do Distributed Training (Data And Model Parallelism).</t>
+  </si>
+  <si>
+    <t>Unit And Integration Tests. Numerical Analysis And Gradient Checking. Research Papers And Its Source Codes. Consultation With Experts. Uses Developer's University Lecturer Notes.</t>
+  </si>
+  <si>
+    <t>Minimum Number Of Lines To Train A Model</t>
   </si>
 </sst>
 </file>
@@ -601,7 +601,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -611,7 +611,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -634,7 +634,7 @@
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -657,10 +657,10 @@
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>13</v>
@@ -680,13 +680,13 @@
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>14</v>
@@ -735,7 +735,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>18</v>
@@ -749,10 +749,10 @@
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -761,7 +761,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>15</v>
@@ -772,10 +772,10 @@
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
@@ -818,45 +818,45 @@
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>15</v>
@@ -864,10 +864,10 @@
     </row>
     <row r="12" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>13</v>
@@ -887,39 +887,39 @@
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>15</v>
@@ -933,76 +933,76 @@
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="1">
         <v>9.6994580000125496E-5</v>
@@ -1025,7 +1025,7 @@
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" s="1">
         <f xml:space="preserve"> $B$18 / B18</f>
@@ -1054,19 +1054,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>14</v>
@@ -1077,30 +1077,30 @@
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>2</v>
@@ -1123,22 +1123,22 @@
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>15</v>
@@ -1146,25 +1146,25 @@
     </row>
     <row r="24" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
+++ b/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aqwam\Documents\GitHub\Software-Libraries-Comparisons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBBBF42-59E5-41EB-B642-1655F36D3BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F0DB2F-C864-4FC2-9146-DD722C669888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="76">
   <si>
     <t>MyOriginsWorkshop (Aqwam Harish Aiman)</t>
   </si>
@@ -192,9 +192,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Machine Learning Certification From Stanford, Deep Learning Certification From DeepLearning.ai</t>
-  </si>
-  <si>
-    <t>Same Previous</t>
   </si>
   <si>
     <t>Average Training Speed For Neural Networks (in seconds)</t>
@@ -601,7 +598,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -611,7 +608,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -634,7 +631,7 @@
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -657,7 +654,7 @@
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>50</v>
@@ -680,13 +677,13 @@
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>14</v>
@@ -735,7 +732,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>18</v>
@@ -749,10 +746,10 @@
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -761,7 +758,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>15</v>
@@ -772,10 +769,10 @@
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>13</v>
@@ -795,7 +792,7 @@
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
@@ -890,22 +887,22 @@
         <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -913,13 +910,13 @@
         <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>15</v>
@@ -962,13 +959,13 @@
         <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>36</v>
@@ -1002,7 +999,7 @@
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="1">
         <v>9.6994580000125496E-5</v>
@@ -1025,7 +1022,7 @@
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" s="1">
         <f xml:space="preserve"> $B$18 / B18</f>
@@ -1057,7 +1054,7 @@
         <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>13</v>
@@ -1092,15 +1089,15 @@
         <v>41</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>2</v>
@@ -1149,7 +1146,7 @@
         <v>45</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>13</v>

--- a/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
+++ b/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aqwam\Documents\GitHub\Software-Libraries-Comparisons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F0DB2F-C864-4FC2-9146-DD722C669888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66307EA1-6BD2-4A86-B2BD-EF8C8E6F6390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t>Full</t>
   </si>
   <si>
-    <t>Kironte Neural Network Library 2.0</t>
-  </si>
-  <si>
     <t>OpenML</t>
   </si>
   <si>
@@ -264,6 +261,9 @@
   </si>
   <si>
     <t>Minimum Number Of Lines To Train A Model</t>
+  </si>
+  <si>
+    <t>Kironte's Neural Network Library 2.0</t>
   </si>
 </sst>
 </file>
@@ -598,7 +598,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -608,7 +608,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -617,85 +617,85 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -706,93 +706,93 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
@@ -815,191 +815,191 @@
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1">
         <v>9.6994580000125496E-5</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" s="1">
         <f xml:space="preserve"> $B$18 / B18</f>
@@ -1051,53 +1051,53 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="E20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>2</v>
@@ -1106,62 +1106,62 @@
         <v>1</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
+++ b/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aqwam\Documents\GitHub\Software-Libraries-Comparisons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66307EA1-6BD2-4A86-B2BD-EF8C8E6F6390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B138D9F6-D76C-4A21-BD96-DD7F1F686981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -188,9 +188,6 @@
     <t>Bachelor In Computer Science In Artificial Intelligence With Honours, Masters In Artificial Intelligence</t>
   </si>
   <si>
-    <t xml:space="preserve"> Machine Learning Certification From Stanford, Deep Learning Certification From DeepLearning.ai</t>
-  </si>
-  <si>
     <t>Average Training Speed For Neural Networks (in seconds)</t>
   </si>
   <si>
@@ -264,6 +261,9 @@
   </si>
   <si>
     <t>Kironte's Neural Network Library 2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Machine Learning Certification From Stanford Online, Deep Learning Certification From DeepLearning.ai</t>
   </si>
 </sst>
 </file>
@@ -598,7 +598,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -608,7 +608,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -617,7 +617,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
@@ -631,7 +631,7 @@
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -654,7 +654,7 @@
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>49</v>
@@ -677,10 +677,10 @@
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -732,7 +732,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>17</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -758,7 +758,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>14</v>
@@ -769,10 +769,10 @@
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
@@ -887,22 +887,22 @@
         <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -910,13 +910,13 @@
         <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>14</v>
@@ -959,13 +959,13 @@
         <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>35</v>
@@ -999,7 +999,7 @@
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" s="1">
         <v>9.6994580000125496E-5</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B19" s="1">
         <f xml:space="preserve"> $B$18 / B18</f>
@@ -1054,7 +1054,7 @@
         <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>12</v>
@@ -1089,15 +1089,15 @@
         <v>40</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>2</v>
@@ -1146,7 +1146,7 @@
         <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>12</v>

--- a/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
+++ b/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aqwam\Documents\GitHub\Software-Libraries-Comparisons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B138D9F6-D76C-4A21-BD96-DD7F1F686981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E91150-D755-4E9F-905F-1C3142E5CC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -185,9 +185,6 @@
     <t>Claims To Add More Models, But There Are No New Developments For The Last 4 Months.</t>
   </si>
   <si>
-    <t>Bachelor In Computer Science In Artificial Intelligence With Honours, Masters In Artificial Intelligence</t>
-  </si>
-  <si>
     <t>Average Training Speed For Neural Networks (in seconds)</t>
   </si>
   <si>
@@ -264,6 +261,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Machine Learning Certification From Stanford Online, Deep Learning Certification From DeepLearning.ai</t>
+  </si>
+  <si>
+    <t>Bachelor In Computer Science In Artificial Intelligence With Honours, Masters In Artificial Intelligence (Coursework And Research)</t>
   </si>
 </sst>
 </file>
@@ -598,7 +598,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -608,7 +608,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -617,7 +617,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
@@ -631,7 +631,7 @@
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -652,12 +652,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -677,10 +677,10 @@
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -732,7 +732,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>17</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -758,7 +758,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>14</v>
@@ -769,10 +769,10 @@
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
@@ -887,22 +887,22 @@
         <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -910,13 +910,13 @@
         <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>14</v>
@@ -959,13 +959,13 @@
         <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>35</v>
@@ -999,7 +999,7 @@
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="1">
         <v>9.6994580000125496E-5</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" s="1">
         <f xml:space="preserve"> $B$18 / B18</f>
@@ -1054,7 +1054,7 @@
         <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>12</v>
@@ -1089,15 +1089,15 @@
         <v>40</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>2</v>
@@ -1146,7 +1146,7 @@
         <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>12</v>

--- a/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
+++ b/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aqwam\Documents\GitHub\Software-Libraries-Comparisons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E91150-D755-4E9F-905F-1C3142E5CC50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EF41C5-C393-44E3-AF7B-51927CF136D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="77">
   <si>
     <t>MyOriginsWorkshop (Aqwam Harish Aiman)</t>
   </si>
@@ -197,9 +197,6 @@
     <t>Each Neural Network Nodes Can Be Customized Individually.</t>
   </si>
   <si>
-    <t>Hard (Nested Arrays And Functions Inside Function Parameters)</t>
-  </si>
-  <si>
     <t>Incomplete</t>
   </si>
   <si>
@@ -264,6 +261,12 @@
   </si>
   <si>
     <t>Bachelor In Computer Science In Artificial Intelligence With Honours, Masters In Artificial Intelligence (Coursework And Research)</t>
+  </si>
+  <si>
+    <t>Medium (Requires Calling Gradient Calculation Object For Every Activation Function Calculation Object.)</t>
+  </si>
+  <si>
+    <t>Hard (Nested Arrays And Functions Inside Function Parameters.)</t>
   </si>
 </sst>
 </file>
@@ -598,7 +601,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -608,7 +611,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -617,7 +620,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
@@ -631,7 +634,7 @@
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -654,10 +657,10 @@
     </row>
     <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -677,10 +680,10 @@
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -732,7 +735,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>17</v>
@@ -749,7 +752,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -758,7 +761,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>14</v>
@@ -772,7 +775,7 @@
         <v>51</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -792,7 +795,7 @@
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
@@ -887,22 +890,22 @@
         <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -910,7 +913,7 @@
         <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -959,16 +962,16 @@
         <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>35</v>
@@ -1022,7 +1025,7 @@
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" s="1">
         <f xml:space="preserve"> $B$18 / B18</f>
@@ -1054,7 +1057,7 @@
         <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>12</v>
@@ -1089,15 +1092,15 @@
         <v>40</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>2</v>
@@ -1146,7 +1149,7 @@
         <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>12</v>

--- a/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
+++ b/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aqwam\Documents\GitHub\Software-Libraries-Comparisons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EF41C5-C393-44E3-AF7B-51927CF136D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1356DD81-B720-40A4-8DEE-5DF4972A716C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -601,7 +601,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1005,7 +1005,7 @@
         <v>49</v>
       </c>
       <c r="B18" s="1">
-        <v>9.6994580000125496E-5</v>
+        <v>7.2515919746365297E-5</v>
       </c>
       <c r="C18" s="1">
         <v>4.3973007000020002E-4</v>
@@ -1033,23 +1033,23 @@
       </c>
       <c r="C19" s="1">
         <f t="shared" ref="C19:G19" si="0" xml:space="preserve"> C18 / $B$18</f>
-        <v>4.5335530088344225</v>
+        <v>6.063910814869593</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
-        <v>1.3510007466374558</v>
+        <v>1.8070480310845685</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="0"/>
-        <v>0.14010339546836345</v>
+        <v>0.1873970577436761</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>103098544258731.38</v>
+        <v>137900753847933.2</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="0"/>
-        <v>0.13080297888570561</v>
+        <v>0.1749571686349633</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">

--- a/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
+++ b/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aqwam\Documents\GitHub\Software-Libraries-Comparisons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1356DD81-B720-40A4-8DEE-5DF4972A716C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD3CD8C-A963-48B6-9496-48F8325F9A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="82">
   <si>
     <t>MyOriginsWorkshop (Aqwam Harish Aiman)</t>
   </si>
@@ -173,15 +173,9 @@
     <t>Developer Integrity</t>
   </si>
   <si>
-    <t>Claims A New Library Similar To TensorFlow Will Be Developed, But There Are No Development For The Last 3 Years.</t>
-  </si>
-  <si>
     <t>Claims To Add Machine Learning Models, But No Models Have Been Added For The Last 4 Months.</t>
   </si>
   <si>
-    <t>Claims To Add More Features, But There Are No New Developments For The Last 3 Years.</t>
-  </si>
-  <si>
     <t>Claims To Add More Models, But There Are No New Developments For The Last 4 Months.</t>
   </si>
   <si>
@@ -267,13 +261,34 @@
   </si>
   <si>
     <t>Hard (Nested Arrays And Functions Inside Function Parameters.)</t>
+  </si>
+  <si>
+    <t>Developer Integrity Proof</t>
+  </si>
+  <si>
+    <t>Claims A New Library Similar To TensorFlow Will Be Developed, But There Are No Development For The Last 2 Years.</t>
+  </si>
+  <si>
+    <t>https://devforum.roblox.com/t/neural-network-library-20/869557/126?u=myoriginsworkshop</t>
+  </si>
+  <si>
+    <t>https://devforum.roblox.com/t/openml-machine-learning/3008664/4?u=myoriginsworkshop</t>
+  </si>
+  <si>
+    <t>https://devforum.roblox.com/t/xentorch-neural-network-constructor/1201111/24?u=myoriginsworkshop</t>
+  </si>
+  <si>
+    <t>Busy With Academics, So No New Features.</t>
+  </si>
+  <si>
+    <t>https://devforum.roblox.com/t/easyml-an-easy-way-to-use-machine-learning-in-your-roblox-games/3110013?u=myoriginsworkshop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +300,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -307,10 +330,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -318,8 +342,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -598,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -611,7 +639,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -620,7 +648,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
@@ -634,7 +662,7 @@
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -657,10 +685,10 @@
     </row>
     <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -680,10 +708,10 @@
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -735,7 +763,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>17</v>
@@ -749,10 +777,10 @@
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -761,7 +789,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>14</v>
@@ -772,10 +800,10 @@
     </row>
     <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -795,7 +823,7 @@
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
@@ -890,22 +918,22 @@
         <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -913,13 +941,13 @@
         <v>29</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>14</v>
@@ -962,16 +990,16 @@
         <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>35</v>
@@ -1002,7 +1030,7 @@
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B18" s="1">
         <v>7.2515919746365297E-5</v>
@@ -1025,7 +1053,7 @@
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B19" s="1">
         <f xml:space="preserve"> $B$18 / B18</f>
@@ -1057,7 +1085,7 @@
         <v>37</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>12</v>
@@ -1092,15 +1120,15 @@
         <v>40</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>2</v>
@@ -1149,25 +1177,48 @@
         <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>48</v>
+    </row>
+    <row r="25" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D25" r:id="rId1" xr:uid="{A66A01FB-1F16-4053-A570-CA0C4DBDF415}"/>
+    <hyperlink ref="E25" r:id="rId2" xr:uid="{AD79AAC9-FDFD-4009-81F4-FA40C8D6ECDF}"/>
+    <hyperlink ref="F25" r:id="rId3" xr:uid="{A80DFB7D-C1E4-4C21-BBF3-8E03E5A7A842}"/>
+    <hyperlink ref="G25" r:id="rId4" xr:uid="{3082FEF1-B38E-4027-9BFC-E14EA8C613F9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
+++ b/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aqwam\Documents\GitHub\Software-Libraries-Comparisons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD3CD8C-A963-48B6-9496-48F8325F9A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE85E1AC-558D-4B3F-A7F1-C7A4A8382974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
+++ b/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aqwam\Documents\GitHub\Software-Libraries-Comparisons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE85E1AC-558D-4B3F-A7F1-C7A4A8382974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C10D711-51D7-4B26-ADC6-40B449FF6622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="21705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -628,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1033,22 +1033,22 @@
         <v>47</v>
       </c>
       <c r="B18" s="1">
-        <v>7.2515919746365297E-5</v>
+        <v>9.1003702007728799E-5</v>
       </c>
       <c r="C18" s="1">
-        <v>4.3973007000020002E-4</v>
+        <v>4.3283899102199901E-4</v>
       </c>
       <c r="D18" s="1">
-        <v>1.31039749999956E-4</v>
+        <v>1.2381732300636899E-4</v>
       </c>
       <c r="E18" s="1">
-        <v>1.3589270000045399E-5</v>
+        <v>1.3676711008447399E-5</v>
       </c>
       <c r="F18" s="1">
         <v>9999999999</v>
       </c>
       <c r="G18" s="1">
-        <v>1.2687179999784299E-5</v>
+        <v>1.22751450253417E-5</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -1061,23 +1061,23 @@
       </c>
       <c r="C19" s="1">
         <f t="shared" ref="C19:G19" si="0" xml:space="preserve"> C18 / $B$18</f>
-        <v>6.063910814869593</v>
+        <v>4.7562789367100544</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
-        <v>1.8070480310845685</v>
+        <v>1.3605745730635594</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="0"/>
-        <v>0.1873970577436761</v>
+        <f xml:space="preserve"> E18 / $B$18</f>
+        <v>0.15028741366242285</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" si="0"/>
-        <v>137900753847933.2</v>
+        <v>109885639577065.95</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="0"/>
-        <v>0.1749571686349633</v>
+        <v>0.13488621621457983</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">

--- a/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
+++ b/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aqwam\Documents\GitHub\Software-Libraries-Comparisons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C10D711-51D7-4B26-ADC6-40B449FF6622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564E07D8-486B-44C7-A765-4F9390E0B496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="21705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>MyOriginsWorkshop (Aqwam Harish Aiman)</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Machine Learning Support</t>
   </si>
   <si>
-    <t>Full</t>
-  </si>
-  <si>
     <t>OpenML</t>
   </si>
   <si>
@@ -74,48 +71,21 @@
     <t>ArtificialIntellect</t>
   </si>
   <si>
-    <t>Same As Previous</t>
-  </si>
-  <si>
     <t>Unknown</t>
   </si>
   <si>
     <t>None</t>
   </si>
   <si>
-    <t>Partial (Limited Number Of Features For Feature Matrix)</t>
-  </si>
-  <si>
     <t>Deep Learning Support</t>
   </si>
   <si>
-    <t>Partial (Feature Matrix / 2D Tensor Only)</t>
-  </si>
-  <si>
-    <t>Partial (Feed Forward Network)</t>
-  </si>
-  <si>
-    <t>Partial (Limited Number Of Features For Feature Matrix And 3 Layers Only)</t>
-  </si>
-  <si>
     <t>Tutorials</t>
   </si>
   <si>
-    <t>Comprehensive And High Quality</t>
-  </si>
-  <si>
-    <t>Limited And High Quality</t>
-  </si>
-  <si>
-    <t>Limited And Low Quality</t>
-  </si>
-  <si>
     <t>API Reference</t>
   </si>
   <si>
-    <t>Complete And High Quality</t>
-  </si>
-  <si>
     <t>Support</t>
   </si>
   <si>
@@ -152,9 +122,6 @@
     <t>Quality Assurance</t>
   </si>
   <si>
-    <t>Unit And Integration Tests</t>
-  </si>
-  <si>
     <t>Maturity</t>
   </si>
   <si>
@@ -173,9 +140,6 @@
     <t>Developer Integrity</t>
   </si>
   <si>
-    <t>Claims To Add Machine Learning Models, But No Models Have Been Added For The Last 4 Months.</t>
-  </si>
-  <si>
     <t>Claims To Add More Models, But There Are No New Developments For The Last 4 Months.</t>
   </si>
   <si>
@@ -194,12 +158,6 @@
     <t>Incomplete</t>
   </si>
   <si>
-    <t>Partial (Generative Adversarial Networks And Some Of Its Variants)</t>
-  </si>
-  <si>
-    <t>Partial (Model-Free Deep Reinforcement Learning, Random Network Distillation, Experience Replays)</t>
-  </si>
-  <si>
     <t>Relative Training Time To The DataPredict Library</t>
   </si>
   <si>
@@ -215,15 +173,6 @@
     <t>Transparent About Features, Limitations And Issues To The Public. Actively Maintained With A Strong Commitment To QA. If Any Promised Development Will Not Be Added, The Public Will Be Informed.</t>
   </si>
   <si>
-    <t>Partial (Feed Forward Network And Recurrent Neural Network)</t>
-  </si>
-  <si>
-    <t>Partial (Deep Q Learning And Experience Replay)</t>
-  </si>
-  <si>
-    <t>Medium (Requires The Creation Of Individual Layers And A Separate Loss Function)</t>
-  </si>
-  <si>
     <t>Developer's Certifications</t>
   </si>
   <si>
@@ -242,9 +191,6 @@
     <t>Can Do Distributed Training (Data And Model Parallelism).</t>
   </si>
   <si>
-    <t>Unit And Integration Tests. Numerical Analysis And Gradient Checking. Research Papers And Its Source Codes. Consultation With Experts. Uses Developer's University Lecturer Notes.</t>
-  </si>
-  <si>
     <t>Minimum Number Of Lines To Train A Model</t>
   </si>
   <si>
@@ -282,6 +228,90 @@
   </si>
   <si>
     <t>https://devforum.roblox.com/t/easyml-an-easy-way-to-use-machine-learning-in-your-roblox-games/3110013?u=myoriginsworkshop</t>
+  </si>
+  <si>
+    <t>Infinity</t>
+  </si>
+  <si>
+    <t>2 (Training) / 1 (Inference)</t>
+  </si>
+  <si>
+    <t>1 (Uses Dictionary Instead Of Tensor)</t>
+  </si>
+  <si>
+    <t>Maximum Number Of Dimensions For Input Tensor</t>
+  </si>
+  <si>
+    <t>Minimum Number Of Dimensions For Input Tensor</t>
+  </si>
+  <si>
+    <t>Maximum Number Of Dimensions For Output Tensor</t>
+  </si>
+  <si>
+    <t>Limited And Low Quality (DevForum Post)</t>
+  </si>
+  <si>
+    <t>Medium (Requires The Creation Of Individual Layers And A Separate Loss Function.)</t>
+  </si>
+  <si>
+    <t>https://devforum.roblox.com/t/datapredict-release-121-general-purpose-machine-learning-and-deep-learning-library-learning-ais-generative-ais-and-more/2196446/2?u=myoriginsworkshop</t>
+  </si>
+  <si>
+    <t>Comprehensive And High Quality (GitHub Pages)</t>
+  </si>
+  <si>
+    <t>Complete And High Quality (GitHub Pages)</t>
+  </si>
+  <si>
+    <t>Limited And High Quality (GitHub Pages)</t>
+  </si>
+  <si>
+    <t>Limited And Low Quality (GitHub Pages)</t>
+  </si>
+  <si>
+    <t>Feed Forward Network (2D Tensor), Convolutional Neural Network (2D Tensor)</t>
+  </si>
+  <si>
+    <t>Feed Forward Network (1D Dictionary), Recurrent Neural Network (1D Dictionary)</t>
+  </si>
+  <si>
+    <t>Feed Forward Network (Limited Number Of Features For Feature Matrix And 3 Layers Only)</t>
+  </si>
+  <si>
+    <t>Deep Q Learning, Experience Replay</t>
+  </si>
+  <si>
+    <t>Feed Forward Network (2D / 1D Tensor)</t>
+  </si>
+  <si>
+    <t>Feed Forward Network (2D Tensor)</t>
+  </si>
+  <si>
+    <t>2 Regression Models (2D Tensor), 5 Classification Models (2D Tensor), 7 Classification Models (2D Tensor)</t>
+  </si>
+  <si>
+    <t>1 Regression Model (1D Tensor), 2 Classification Model (2D Tensor)</t>
+  </si>
+  <si>
+    <t>4 Generative Adversarial Networks</t>
+  </si>
+  <si>
+    <t>Claims To Add Machine Learning Models, But No Models Have Been Added For The Last 4 Months. Also, Misleading Library Name.</t>
+  </si>
+  <si>
+    <t>Unit And Integration Tests. Numerical Analysis And Gradient Checking. Research Papers And Its Source Codes. Consultation With Experts. Uses Developer's University Lecturer's Notes.</t>
+  </si>
+  <si>
+    <t>Unit And Integration Tests.</t>
+  </si>
+  <si>
+    <t>17 Model-Free Deep Reinforcement Learning, 3 Experience Replays, 1 Random Network Distillation</t>
+  </si>
+  <si>
+    <t>Feed Forward Network (ND Tensor), Convolutional Neural Network (ND Tensor), Recurrent Neural Network (ND Tensor) (Must Build From Existing Components)</t>
+  </si>
+  <si>
+    <t>1 (Training) / 1 (Inference)</t>
   </si>
 </sst>
 </file>
@@ -626,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -639,7 +669,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -648,182 +678,182 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>85</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
@@ -846,378 +876,475 @@
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>67</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>23</v>
+        <v>66</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
+        <v>68</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>66</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>69</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>64</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>13</v>
+        <v>66</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>69</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>66</v>
+      <c r="E13" s="1">
+        <v>2</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="1">
-        <v>9.1003702007728799E-5</v>
-      </c>
-      <c r="C18" s="1">
-        <v>4.3283899102199901E-4</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1.2381732300636899E-4</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1.3676711008447399E-5</v>
-      </c>
-      <c r="F18" s="1">
-        <v>9999999999</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1.22751450253417E-5</v>
+        <v>19</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="1">
-        <f xml:space="preserve"> $B$18 / B18</f>
+        <v>20</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="1">
+        <v>9.1003702007728799E-5</v>
+      </c>
+      <c r="C22" s="1">
+        <v>4.3283899102199901E-4</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.2381732300636899E-4</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1.3676711008447399E-5</v>
+      </c>
+      <c r="F22" s="1">
+        <v>9999999999</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1.22751450253417E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="1">
+        <f xml:space="preserve"> $B$22 / B22</f>
         <v>1</v>
       </c>
-      <c r="C19" s="1">
-        <f t="shared" ref="C19:G19" si="0" xml:space="preserve"> C18 / $B$18</f>
+      <c r="C23" s="1">
+        <f t="shared" ref="C23:G23" si="0" xml:space="preserve"> C22 / $B$22</f>
         <v>4.7562789367100544</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D23" s="1">
         <f t="shared" si="0"/>
         <v>1.3605745730635594</v>
       </c>
-      <c r="E19" s="1">
-        <f xml:space="preserve"> E18 / $B$18</f>
+      <c r="E23" s="1">
+        <f xml:space="preserve"> E22 / $B$22</f>
         <v>0.15028741366242285</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F23" s="1">
         <f t="shared" si="0"/>
         <v>109885639577065.95</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G23" s="1">
         <f t="shared" si="0"/>
         <v>0.13488621621457983</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="G25" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="D26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>81</v>
+      <c r="E28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D25" r:id="rId1" xr:uid="{A66A01FB-1F16-4053-A570-CA0C4DBDF415}"/>
-    <hyperlink ref="E25" r:id="rId2" xr:uid="{AD79AAC9-FDFD-4009-81F4-FA40C8D6ECDF}"/>
-    <hyperlink ref="F25" r:id="rId3" xr:uid="{A80DFB7D-C1E4-4C21-BBF3-8E03E5A7A842}"/>
-    <hyperlink ref="G25" r:id="rId4" xr:uid="{3082FEF1-B38E-4027-9BFC-E14EA8C613F9}"/>
+    <hyperlink ref="D29" r:id="rId1" xr:uid="{A66A01FB-1F16-4053-A570-CA0C4DBDF415}"/>
+    <hyperlink ref="E29" r:id="rId2" xr:uid="{AD79AAC9-FDFD-4009-81F4-FA40C8D6ECDF}"/>
+    <hyperlink ref="F29" r:id="rId3" xr:uid="{A80DFB7D-C1E4-4C21-BBF3-8E03E5A7A842}"/>
+    <hyperlink ref="G29" r:id="rId4" xr:uid="{3082FEF1-B38E-4027-9BFC-E14EA8C613F9}"/>
+    <hyperlink ref="B29" r:id="rId5" xr:uid="{D7820418-7FB7-4E62-9DFF-6F7D558EE0C8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
+++ b/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aqwam\Documents\GitHub\Software-Libraries-Comparisons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{564E07D8-486B-44C7-A765-4F9390E0B496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A526C4E7-13B4-4C5B-94B0-4053F6D462F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -287,9 +287,6 @@
     <t>Feed Forward Network (2D Tensor)</t>
   </si>
   <si>
-    <t>2 Regression Models (2D Tensor), 5 Classification Models (2D Tensor), 7 Classification Models (2D Tensor)</t>
-  </si>
-  <si>
     <t>1 Regression Model (1D Tensor), 2 Classification Model (2D Tensor)</t>
   </si>
   <si>
@@ -312,6 +309,9 @@
   </si>
   <si>
     <t>1 (Training) / 1 (Inference)</t>
+  </si>
+  <si>
+    <t>2 Regression Models (2D Tensor), 5 Classification Models (2D Tensor), 7 Clustering Models (2D Tensor)</t>
   </si>
 </sst>
 </file>
@@ -659,7 +659,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -759,27 +759,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -790,7 +790,7 @@
         <v>82</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>78</v>
@@ -810,10 +810,10 @@
         <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
@@ -833,10 +833,10 @@
         <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>12</v>
@@ -917,7 +917,7 @@
         <v>65</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -1207,16 +1207,16 @@
         <v>27</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>11</v>
@@ -1308,7 +1308,7 @@
         <v>58</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>62</v>

--- a/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
+++ b/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aqwam\Documents\GitHub\Software-Libraries-Comparisons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A526C4E7-13B4-4C5B-94B0-4053F6D462F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BE19B2-52E0-455C-A71F-E471B895241B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -305,13 +305,13 @@
     <t>17 Model-Free Deep Reinforcement Learning, 3 Experience Replays, 1 Random Network Distillation</t>
   </si>
   <si>
-    <t>Feed Forward Network (ND Tensor), Convolutional Neural Network (ND Tensor), Recurrent Neural Network (ND Tensor) (Must Build From Existing Components)</t>
-  </si>
-  <si>
     <t>1 (Training) / 1 (Inference)</t>
   </si>
   <si>
     <t>2 Regression Models (2D Tensor), 5 Classification Models (2D Tensor), 7 Clustering Models (2D Tensor)</t>
+  </si>
+  <si>
+    <t>[Computational Graph Structure] Feed Forward Network (ND Tensor), Convolutional Neural Network (ND Tensor), Recurrent Neural Network (ND Tensor) (Must Build From Existing Components), Graph Neural Network (ND Tensor) (Must Build From Existing Components)</t>
   </si>
 </sst>
 </file>
@@ -659,7 +659,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -782,7 +782,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -790,7 +790,7 @@
         <v>82</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>78</v>
@@ -917,7 +917,7 @@
         <v>65</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">

--- a/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
+++ b/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aqwam\Documents\GitHub\Software-Libraries-Comparisons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BE19B2-52E0-455C-A71F-E471B895241B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BD8721-637A-4B91-AC08-F6FAEB54806F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -659,7 +659,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
+++ b/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aqwam\Documents\GitHub\Software-Libraries-Comparisons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30BD8721-637A-4B91-AC08-F6FAEB54806F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E098C2-573E-49D6-BB48-9C9089E665FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -659,7 +659,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
+++ b/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aqwam\Documents\GitHub\Software-Libraries-Comparisons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E098C2-573E-49D6-BB48-9C9089E665FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7BB023-702F-4994-A2BB-7790BF04C58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -302,9 +302,6 @@
     <t>Unit And Integration Tests.</t>
   </si>
   <si>
-    <t>17 Model-Free Deep Reinforcement Learning, 3 Experience Replays, 1 Random Network Distillation</t>
-  </si>
-  <si>
     <t>1 (Training) / 1 (Inference)</t>
   </si>
   <si>
@@ -312,6 +309,9 @@
   </si>
   <si>
     <t>[Computational Graph Structure] Feed Forward Network (ND Tensor), Convolutional Neural Network (ND Tensor), Recurrent Neural Network (ND Tensor) (Must Build From Existing Components), Graph Neural Network (ND Tensor) (Must Build From Existing Components)</t>
+  </si>
+  <si>
+    <t>19 Model-Free Deep Reinforcement Learning, 3 Experience Replays, 1 Random Network Distillation</t>
   </si>
 </sst>
 </file>
@@ -659,7 +659,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -764,7 +764,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -790,7 +790,7 @@
         <v>82</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>78</v>
@@ -810,10 +810,10 @@
         <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
@@ -917,7 +917,7 @@
         <v>65</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">

--- a/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
+++ b/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aqwam\Documents\GitHub\Software-Libraries-Comparisons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7BB023-702F-4994-A2BB-7790BF04C58D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92890B4E-F2D8-4A95-A81A-A6B692DFF53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="93">
   <si>
     <t>MyOriginsWorkshop (Aqwam Harish Aiman)</t>
   </si>
@@ -89,9 +89,6 @@
     <t>Support</t>
   </si>
   <si>
-    <t>Immediate Bug Fix. If Paid User, Then Feature And Bug Fix Requests From Them Will Likely To Be Considered First.</t>
-  </si>
-  <si>
     <t>Community</t>
   </si>
   <si>
@@ -312,6 +309,12 @@
   </si>
   <si>
     <t>19 Model-Free Deep Reinforcement Learning, 3 Experience Replays, 1 Random Network Distillation</t>
+  </si>
+  <si>
+    <t>Minimum Number Of Dimensions For Output Tensor</t>
+  </si>
+  <si>
+    <t>Immediate Bug Fix. If Paid User, Then Feature And Bug Fix Requests From Them Be Prioritized First.</t>
   </si>
 </sst>
 </file>
@@ -659,7 +662,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -669,7 +672,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -678,7 +681,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -692,7 +695,7 @@
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -715,13 +718,13 @@
     </row>
     <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -738,13 +741,13 @@
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
@@ -764,7 +767,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -779,7 +782,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -787,39 +790,39 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>12</v>
@@ -830,13 +833,13 @@
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>12</v>
@@ -853,7 +856,7 @@
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
@@ -876,30 +879,30 @@
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="1">
         <v>2</v>
@@ -908,44 +911,44 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
@@ -954,16 +957,16 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -971,22 +974,22 @@
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -994,19 +997,19 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>12</v>
@@ -1017,10 +1020,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>11</v>
@@ -1037,39 +1040,39 @@
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>12</v>
@@ -1083,76 +1086,76 @@
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="1">
         <v>9.1003702007728799E-5</v>
@@ -1175,7 +1178,7 @@
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="1">
         <f xml:space="preserve"> $B$22 / B22</f>
@@ -1204,19 +1207,19 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>11</v>
@@ -1227,30 +1230,30 @@
     </row>
     <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>2</v>
@@ -1273,22 +1276,22 @@
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="E27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>12</v>
@@ -1296,46 +1299,46 @@
     </row>
     <row r="28" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="G29" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
+++ b/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aqwam\Documents\GitHub\Software-Libraries-Comparisons\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/540fc2d1f3f267b1/Documents/GitHub/Software-Libraries-Comparisons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92890B4E-F2D8-4A95-A81A-A6B692DFF53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{92890B4E-F2D8-4A95-A81A-A6B692DFF53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6DFD813-590A-44DF-966C-A027B3F1DCAD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="21705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="98">
   <si>
     <t>MyOriginsWorkshop (Aqwam Harish Aiman)</t>
   </si>
@@ -140,9 +140,6 @@
     <t>Claims To Add More Models, But There Are No New Developments For The Last 4 Months.</t>
   </si>
   <si>
-    <t>Average Training Speed For Neural Networks (in seconds)</t>
-  </si>
-  <si>
     <t>Reinforcement Learning Support</t>
   </si>
   <si>
@@ -155,9 +152,6 @@
     <t>Incomplete</t>
   </si>
   <si>
-    <t>Relative Training Time To The DataPredict Library</t>
-  </si>
-  <si>
     <t>Cross Compatible Libraries</t>
   </si>
   <si>
@@ -308,13 +302,34 @@
     <t>[Computational Graph Structure] Feed Forward Network (ND Tensor), Convolutional Neural Network (ND Tensor), Recurrent Neural Network (ND Tensor) (Must Build From Existing Components), Graph Neural Network (ND Tensor) (Must Build From Existing Components)</t>
   </si>
   <si>
-    <t>19 Model-Free Deep Reinforcement Learning, 3 Experience Replays, 1 Random Network Distillation</t>
-  </si>
-  <si>
     <t>Minimum Number Of Dimensions For Output Tensor</t>
   </si>
   <si>
     <t>Immediate Bug Fix. If Paid User, Then Feature And Bug Fix Requests From Them Be Prioritized First.</t>
+  </si>
+  <si>
+    <t>19 Model-Free Deep Reinforcement Learning, 3 Experience Replays, 1 Random Network Distillation, 2 Imitation Learning Models</t>
+  </si>
+  <si>
+    <t>High. Must Be Implemented Manually.</t>
+  </si>
+  <si>
+    <t>High. In-Built By Default</t>
+  </si>
+  <si>
+    <t>Compatibility Of Multi-Threading</t>
+  </si>
+  <si>
+    <t>Compatibility Of Multi-Process</t>
+  </si>
+  <si>
+    <t>Change In Training Speed For Neural Networks Compared To DataPredict Library (In Percentage)</t>
+  </si>
+  <si>
+    <t>Average Training Time For Neural Networks For A Single Datapoint (In seconds)</t>
+  </si>
+  <si>
+    <t>None (The Creator Claims No License Is Considered As Open Source. In Reality, Default Copyright Laws Applies When Source Codes Has No License. Use At Your Own Risk.)</t>
   </si>
 </sst>
 </file>
@@ -659,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -672,7 +687,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -681,7 +696,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -695,7 +710,7 @@
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -718,13 +733,13 @@
     </row>
     <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -741,13 +756,13 @@
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
@@ -767,7 +782,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -782,7 +797,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -790,27 +805,27 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>90</v>
@@ -822,7 +837,7 @@
         <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>12</v>
@@ -833,13 +848,13 @@
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>12</v>
@@ -856,7 +871,7 @@
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
@@ -879,30 +894,30 @@
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B11" s="1">
         <v>2</v>
@@ -911,44 +926,44 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
@@ -957,16 +972,16 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -974,22 +989,22 @@
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -997,19 +1012,19 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>12</v>
@@ -1020,10 +1035,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>11</v>
@@ -1043,22 +1058,22 @@
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1066,13 +1081,13 @@
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>12</v>
@@ -1104,7 +1119,7 @@
         <v>22</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1115,16 +1130,16 @@
         <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>24</v>
@@ -1153,202 +1168,249 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="1">
-        <v>9.1003702007728799E-5</v>
-      </c>
-      <c r="C22" s="1">
-        <v>4.3283899102199901E-4</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1.2381732300636899E-4</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1.3676711008447399E-5</v>
-      </c>
-      <c r="F22" s="1">
-        <v>9999999999</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1.22751450253417E-5</v>
+        <v>93</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="1">
-        <f xml:space="preserve"> $B$22 / B22</f>
-        <v>1</v>
-      </c>
-      <c r="C23" s="1">
-        <f t="shared" ref="C23:G23" si="0" xml:space="preserve"> C22 / $B$22</f>
-        <v>4.7562789367100544</v>
-      </c>
-      <c r="D23" s="1">
+        <v>94</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="1">
+        <v>9.1003702007728799E-5</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4.3283899102199901E-4</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.2381732300636899E-4</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1.3676711008447399E-5</v>
+      </c>
+      <c r="F24" s="1">
+        <v>9999999999</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1.22751450253417E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="1">
+        <f xml:space="preserve"> (($B$24 - B24) / $B$24) * 100</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" ref="C25:G25" si="0" xml:space="preserve"> (($B$24 - C24) / $B$24) * 100</f>
+        <v>-375.62789367100549</v>
+      </c>
+      <c r="D25" s="1">
         <f t="shared" si="0"/>
-        <v>1.3605745730635594</v>
-      </c>
-      <c r="E23" s="1">
-        <f xml:space="preserve"> E22 / $B$22</f>
-        <v>0.15028741366242285</v>
-      </c>
-      <c r="F23" s="1">
+        <v>-36.057457306355936</v>
+      </c>
+      <c r="E25" s="1">
         <f t="shared" si="0"/>
-        <v>109885639577065.95</v>
-      </c>
-      <c r="G23" s="1">
+        <v>84.971258633757714</v>
+      </c>
+      <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>0.13488621621457983</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+        <v>-1.0988563957706496E+16</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="0"/>
+        <v>86.51137837854202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="B26" s="1" t="s">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="E29" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="G29" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D29" r:id="rId1" xr:uid="{A66A01FB-1F16-4053-A570-CA0C4DBDF415}"/>
-    <hyperlink ref="E29" r:id="rId2" xr:uid="{AD79AAC9-FDFD-4009-81F4-FA40C8D6ECDF}"/>
-    <hyperlink ref="F29" r:id="rId3" xr:uid="{A80DFB7D-C1E4-4C21-BBF3-8E03E5A7A842}"/>
-    <hyperlink ref="G29" r:id="rId4" xr:uid="{3082FEF1-B38E-4027-9BFC-E14EA8C613F9}"/>
-    <hyperlink ref="B29" r:id="rId5" xr:uid="{D7820418-7FB7-4E62-9DFF-6F7D558EE0C8}"/>
+    <hyperlink ref="D31" r:id="rId1" xr:uid="{A66A01FB-1F16-4053-A570-CA0C4DBDF415}"/>
+    <hyperlink ref="E31" r:id="rId2" xr:uid="{AD79AAC9-FDFD-4009-81F4-FA40C8D6ECDF}"/>
+    <hyperlink ref="F31" r:id="rId3" xr:uid="{A80DFB7D-C1E4-4C21-BBF3-8E03E5A7A842}"/>
+    <hyperlink ref="G31" r:id="rId4" xr:uid="{3082FEF1-B38E-4027-9BFC-E14EA8C613F9}"/>
+    <hyperlink ref="B31" r:id="rId5" xr:uid="{D7820418-7FB7-4E62-9DFF-6F7D558EE0C8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
+++ b/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{92890B4E-F2D8-4A95-A81A-A6B692DFF53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6DFD813-590A-44DF-966C-A027B3F1DCAD}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="21705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="38700" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,6 +409,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -676,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
+++ b/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/540fc2d1f3f267b1/Documents/GitHub/Software-Libraries-Comparisons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{92890B4E-F2D8-4A95-A81A-A6B692DFF53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6DFD813-590A-44DF-966C-A027B3F1DCAD}"/>
+  <xr:revisionPtr revIDLastSave="160" documentId="13_ncr:1_{92890B4E-F2D8-4A95-A81A-A6B692DFF53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B4A5FCF-457C-435E-94F4-CF9431896587}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="38700" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1035" yWindow="5730" windowWidth="38700" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="102">
   <si>
     <t>MyOriginsWorkshop (Aqwam Harish Aiman)</t>
   </si>
@@ -134,12 +134,6 @@
     <t>MIT License</t>
   </si>
   <si>
-    <t>Developer Integrity</t>
-  </si>
-  <si>
-    <t>Claims To Add More Models, But There Are No New Developments For The Last 4 Months.</t>
-  </si>
-  <si>
     <t>Reinforcement Learning Support</t>
   </si>
   <si>
@@ -284,9 +278,6 @@
     <t>4 Generative Adversarial Networks</t>
   </si>
   <si>
-    <t>Claims To Add Machine Learning Models, But No Models Have Been Added For The Last 4 Months. Also, Misleading Library Name.</t>
-  </si>
-  <si>
     <t>Unit And Integration Tests. Numerical Analysis And Gradient Checking. Research Papers And Its Source Codes. Consultation With Experts. Uses Developer's University Lecturer's Notes.</t>
   </si>
   <si>
@@ -305,31 +296,52 @@
     <t>Minimum Number Of Dimensions For Output Tensor</t>
   </si>
   <si>
-    <t>Immediate Bug Fix. If Paid User, Then Feature And Bug Fix Requests From Them Be Prioritized First.</t>
-  </si>
-  <si>
     <t>19 Model-Free Deep Reinforcement Learning, 3 Experience Replays, 1 Random Network Distillation, 2 Imitation Learning Models</t>
   </si>
   <si>
     <t>High. Must Be Implemented Manually.</t>
   </si>
   <si>
-    <t>High. In-Built By Default</t>
-  </si>
-  <si>
-    <t>Compatibility Of Multi-Threading</t>
-  </si>
-  <si>
-    <t>Compatibility Of Multi-Process</t>
-  </si>
-  <si>
-    <t>Change In Training Speed For Neural Networks Compared To DataPredict Library (In Percentage)</t>
-  </si>
-  <si>
-    <t>Average Training Time For Neural Networks For A Single Datapoint (In seconds)</t>
-  </si>
-  <si>
     <t>None (The Creator Claims No License Is Considered As Open Source. In Reality, Default Copyright Laws Applies When Source Codes Has No License. Use At Your Own Risk.)</t>
+  </si>
+  <si>
+    <t>High. In-Built By Default.</t>
+  </si>
+  <si>
+    <t>Multi-Threading Compatibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Multi-Process Compatibility</t>
+  </si>
+  <si>
+    <t>Developer Integrity Comments</t>
+  </si>
+  <si>
+    <t>Claims To Add Machine Learning Models, But No Models Have Been Added For The Last 6 Months. Also, Misleading Library Name.</t>
+  </si>
+  <si>
+    <t>Claims To Add More Models, But There Are No New Developments For The Last 6 Months.</t>
+  </si>
+  <si>
+    <t>Immediate Bug Fix. If Paid User, Then Feature And Bug Fix Requests From Them Will Be Prioritized First.</t>
+  </si>
+  <si>
+    <t>Average Training Time Per Data Point When Batched Per Iteration For Neural Networks (In Seconds)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average Training Speed Per Data Point Per Iteration For Neural Networks (In Data Point Per Seconds) </t>
+  </si>
+  <si>
+    <t>Average Training Time Per Data Point Per Iteration For Neural Networks (In Seconds)</t>
+  </si>
+  <si>
+    <t>Average Training Speed Per Data Point When Batched Per Iteration For Neural Networks (In Data Point Per Seconds)</t>
+  </si>
+  <si>
+    <t>Relative Speedup Factor Per Data Point When Batched For Neural Networks When Compared With DataPredict Library (In Percentage)</t>
+  </si>
+  <si>
+    <t>Speedup Factor Per Data Point When Batched For Neural Networks</t>
   </si>
 </sst>
 </file>
@@ -678,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -691,7 +703,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -700,7 +712,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -714,7 +726,7 @@
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -737,13 +749,13 @@
     </row>
     <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -760,13 +772,13 @@
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
@@ -786,7 +798,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -801,7 +813,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -809,39 +821,39 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>12</v>
@@ -852,13 +864,13 @@
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>12</v>
@@ -875,7 +887,7 @@
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
@@ -898,30 +910,30 @@
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B11" s="1">
         <v>2</v>
@@ -930,44 +942,44 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
@@ -976,16 +988,16 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -993,22 +1005,22 @@
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -1016,19 +1028,19 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>12</v>
@@ -1039,10 +1051,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>11</v>
@@ -1062,22 +1074,22 @@
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1085,13 +1097,13 @@
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>12</v>
@@ -1134,16 +1146,16 @@
         <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>24</v>
@@ -1174,13 +1186,13 @@
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>11</v>
@@ -1197,13 +1209,13 @@
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>11</v>
@@ -1220,199 +1232,309 @@
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B24" s="1">
-        <v>9.1003702007728799E-5</v>
+        <v>2.6780087030783701E-5</v>
       </c>
       <c r="C24" s="1">
-        <v>4.3283899102199901E-4</v>
+        <v>1.3302441503677901E-4</v>
       </c>
       <c r="D24" s="1">
-        <v>1.2381732300636899E-4</v>
+        <v>3.5632943031669098E-5</v>
       </c>
       <c r="E24" s="1">
-        <v>1.3676711008447399E-5</v>
+        <v>3.9908320040558402E-6</v>
       </c>
       <c r="F24" s="1">
         <v>9999999999</v>
       </c>
       <c r="G24" s="1">
-        <v>1.22751450253417E-5</v>
+        <v>3.6693139592534802E-6</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B25" s="1">
-        <f xml:space="preserve"> (($B$24 - B24) / $B$24) * 100</f>
-        <v>0</v>
+        <f xml:space="preserve"> 1 / B24</f>
+        <v>37341.178124271974</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" ref="C25:G25" si="0" xml:space="preserve"> (($B$24 - C24) / $B$24) * 100</f>
-        <v>-375.62789367100549</v>
+        <f t="shared" ref="C25:G25" si="0" xml:space="preserve"> 1 / C24</f>
+        <v>7517.4170074231624</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="0"/>
-        <v>-36.057457306355936</v>
+        <v>28063.918243049444</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="0"/>
-        <v>84.971258633757714</v>
+        <v>250574.31607837928</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" si="0"/>
-        <v>-1.0988563957706496E+16</v>
+        <v>1.0000000001E-10</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="0"/>
-        <v>86.51137837854202</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>272530.50872851704</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B26" s="1">
+        <v>6.43169470349676E-6</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2.9158538400020901E-5</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3.1873222101421501E-5</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2.6394065960485001E-6</v>
+      </c>
+      <c r="F26" s="1">
+        <v>9999999999</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1.4554142994165801E-6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="1">
+        <f xml:space="preserve"> 1 / B26</f>
+        <v>155480.01671415212</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" ref="C27:G27" si="1" xml:space="preserve"> 1 / C26</f>
+        <v>34295.271809621401</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="1"/>
+        <v>31374.298990480835</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="1"/>
+        <v>378873.03968138777</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0000000001E-10</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="1"/>
+        <v>687089.58019779099</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="1">
+        <f xml:space="preserve"> (B27 / B25)</f>
+        <v>4.1637683791526987</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" ref="C28:G28" si="2" xml:space="preserve"> (C27 / C25)</f>
+        <v>4.5621084710022242</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="2"/>
+        <v>1.1179586085863569</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="2"/>
+        <v>1.5120186522344008</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="2"/>
+        <v>2.521147387877368</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="1">
+        <f xml:space="preserve"> ((B28 - $B$28) / $B$28) * 100</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" ref="C29:G29" si="3" xml:space="preserve"> ((C28 - $B$28) / $B$28) * 100</f>
+        <v>9.5668167769357346</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="3"/>
+        <v>-73.150317049723725</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="3"/>
+        <v>-63.686292931066269</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="3"/>
+        <v>-75.983294243579081</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="3"/>
+        <v>-39.450345016780062</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="F31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="D32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F29" s="1" t="s">
+      <c r="E33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="1" t="s">
+      <c r="G33" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D31" r:id="rId1" xr:uid="{A66A01FB-1F16-4053-A570-CA0C4DBDF415}"/>
-    <hyperlink ref="E31" r:id="rId2" xr:uid="{AD79AAC9-FDFD-4009-81F4-FA40C8D6ECDF}"/>
-    <hyperlink ref="F31" r:id="rId3" xr:uid="{A80DFB7D-C1E4-4C21-BBF3-8E03E5A7A842}"/>
-    <hyperlink ref="G31" r:id="rId4" xr:uid="{3082FEF1-B38E-4027-9BFC-E14EA8C613F9}"/>
-    <hyperlink ref="B31" r:id="rId5" xr:uid="{D7820418-7FB7-4E62-9DFF-6F7D558EE0C8}"/>
+    <hyperlink ref="D35" r:id="rId1" xr:uid="{A66A01FB-1F16-4053-A570-CA0C4DBDF415}"/>
+    <hyperlink ref="E35" r:id="rId2" xr:uid="{AD79AAC9-FDFD-4009-81F4-FA40C8D6ECDF}"/>
+    <hyperlink ref="F35" r:id="rId3" xr:uid="{A80DFB7D-C1E4-4C21-BBF3-8E03E5A7A842}"/>
+    <hyperlink ref="G35" r:id="rId4" xr:uid="{3082FEF1-B38E-4027-9BFC-E14EA8C613F9}"/>
+    <hyperlink ref="B35" r:id="rId5" xr:uid="{D7820418-7FB7-4E62-9DFF-6F7D558EE0C8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>

--- a/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
+++ b/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/540fc2d1f3f267b1/Documents/GitHub/Software-Libraries-Comparisons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="160" documentId="13_ncr:1_{92890B4E-F2D8-4A95-A81A-A6B692DFF53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B4A5FCF-457C-435E-94F4-CF9431896587}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="13_ncr:1_{92890B4E-F2D8-4A95-A81A-A6B692DFF53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BC2EA14-3B28-4AF1-9AE9-8C59E299E875}"/>
   <bookViews>
-    <workbookView xWindow="1035" yWindow="5730" windowWidth="38700" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12675" yWindow="8085" windowWidth="38700" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -693,7 +693,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1287,22 +1287,22 @@
         <v>96</v>
       </c>
       <c r="B26" s="1">
-        <v>6.43169470349676E-6</v>
+        <v>6.3085109044914998E-6</v>
       </c>
       <c r="C26" s="1">
-        <v>2.9158538400020901E-5</v>
+        <v>2.8364474897272601E-5</v>
       </c>
       <c r="D26" s="1">
-        <v>3.1873222101421501E-5</v>
+        <v>3.1779647300019698E-5</v>
       </c>
       <c r="E26" s="1">
-        <v>2.6394065960485001E-6</v>
+        <v>2.56268959649605E-6</v>
       </c>
       <c r="F26" s="1">
         <v>9999999999</v>
       </c>
       <c r="G26" s="1">
-        <v>1.4554142994165801E-6</v>
+        <v>1.4354445003846001E-6</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1311,19 +1311,19 @@
       </c>
       <c r="B27" s="1">
         <f xml:space="preserve"> 1 / B26</f>
-        <v>155480.01671415212</v>
+        <v>158516.01354735321</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" ref="C27:G27" si="1" xml:space="preserve"> 1 / C26</f>
-        <v>34295.271809621401</v>
+        <f xml:space="preserve"> 1 / C26</f>
+        <v>35255.367977785318</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="1"/>
-        <v>31374.298990480835</v>
+        <f t="shared" ref="C27:G27" si="1" xml:space="preserve"> 1 / D26</f>
+        <v>31466.680248505469</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="1"/>
-        <v>378873.03968138777</v>
+        <v>390215.03086729423</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="1"/>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="G27" s="1">
         <f t="shared" si="1"/>
-        <v>687089.58019779099</v>
+        <v>696648.32024649438</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1340,19 +1340,19 @@
       </c>
       <c r="B28" s="1">
         <f xml:space="preserve"> (B27 / B25)</f>
-        <v>4.1637683791526987</v>
+        <v>4.2450726385710071</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" ref="C28:G28" si="2" xml:space="preserve"> (C27 / C25)</f>
-        <v>4.5621084710022242</v>
+        <v>4.6898247021512827</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="2"/>
-        <v>1.1179586085863569</v>
+        <v>1.1212504246907427</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="2"/>
-        <v>1.5120186522344008</v>
+        <v>1.5572826336488355</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" si="2"/>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="G28" s="1">
         <f t="shared" si="2"/>
-        <v>2.521147387877368</v>
+        <v>2.5562214061709505</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1373,23 +1373,23 @@
       </c>
       <c r="C29" s="1">
         <f t="shared" ref="C29:G29" si="3" xml:space="preserve"> ((C28 - $B$28) / $B$28) * 100</f>
-        <v>9.5668167769357346</v>
+        <v>10.476901138021272</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="3"/>
-        <v>-73.150317049723725</v>
+        <v>-73.587014401049629</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="3"/>
-        <v>-63.686292931066269</v>
+        <v>-63.315524462425834</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="3"/>
-        <v>-75.983294243579081</v>
+        <v>-76.44327706164708</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="3"/>
-        <v>-39.450345016780062</v>
+        <v>-39.783800565744016</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">

--- a/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
+++ b/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/540fc2d1f3f267b1/Documents/GitHub/Software-Libraries-Comparisons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="169" documentId="13_ncr:1_{92890B4E-F2D8-4A95-A81A-A6B692DFF53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BC2EA14-3B28-4AF1-9AE9-8C59E299E875}"/>
+  <xr:revisionPtr revIDLastSave="175" documentId="13_ncr:1_{92890B4E-F2D8-4A95-A81A-A6B692DFF53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C82A0834-135B-4740-9899-9DBA809B55AD}"/>
   <bookViews>
-    <workbookView xWindow="12675" yWindow="8085" windowWidth="38700" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12675" yWindow="5715" windowWidth="38700" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -326,22 +326,22 @@
     <t>Immediate Bug Fix. If Paid User, Then Feature And Bug Fix Requests From Them Will Be Prioritized First.</t>
   </si>
   <si>
-    <t>Average Training Time Per Data Point When Batched Per Iteration For Neural Networks (In Seconds)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average Training Speed Per Data Point Per Iteration For Neural Networks (In Data Point Per Seconds) </t>
-  </si>
-  <si>
     <t>Average Training Time Per Data Point Per Iteration For Neural Networks (In Seconds)</t>
   </si>
   <si>
-    <t>Average Training Speed Per Data Point When Batched Per Iteration For Neural Networks (In Data Point Per Seconds)</t>
-  </si>
-  <si>
-    <t>Relative Speedup Factor Per Data Point When Batched For Neural Networks When Compared With DataPredict Library (In Percentage)</t>
-  </si>
-  <si>
-    <t>Speedup Factor Per Data Point When Batched For Neural Networks</t>
+    <t>Average Training Speed Per Data Point Per Iteration For Neural Networks (In Data Point Per Seconds) (On CPU)</t>
+  </si>
+  <si>
+    <t>Average Training Time Per Data Point When Batched Per Iteration For Neural Networks (In Seconds) (On CPU)</t>
+  </si>
+  <si>
+    <t>Average Training Speed Per Data Point When Batched Per Iteration For Neural Networks (In Data Point Per Seconds) (On CPU)</t>
+  </si>
+  <si>
+    <t>Speedup Factor Per Data Point When Batched For Neural Networks (On CPU)</t>
+  </si>
+  <si>
+    <t>Relative Speedup Factor Per Data Point When Batched For Neural Networks When Compared With DataPredict Library (In Percentage) (On CPU)</t>
   </si>
 </sst>
 </file>
@@ -693,7 +693,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1232,7 @@
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B24" s="1">
         <v>2.6780087030783701E-5</v>
@@ -1253,7 +1253,7 @@
         <v>3.6693139592534802E-6</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>97</v>
       </c>
@@ -1282,9 +1282,9 @@
         <v>272530.50872851704</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B26" s="1">
         <v>6.3085109044914998E-6</v>
@@ -1318,7 +1318,7 @@
         <v>35255.367977785318</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" ref="C27:G27" si="1" xml:space="preserve"> 1 / D26</f>
+        <f t="shared" ref="D27:G27" si="1" xml:space="preserve"> 1 / D26</f>
         <v>31466.680248505469</v>
       </c>
       <c r="E27" s="1">
@@ -1336,7 +1336,7 @@
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B28" s="1">
         <f xml:space="preserve"> (B27 / B25)</f>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1">
         <f xml:space="preserve"> ((B28 - $B$28) / $B$28) * 100</f>

--- a/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
+++ b/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/540fc2d1f3f267b1/Documents/GitHub/Software-Libraries-Comparisons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="175" documentId="13_ncr:1_{92890B4E-F2D8-4A95-A81A-A6B692DFF53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C82A0834-135B-4740-9899-9DBA809B55AD}"/>
+  <xr:revisionPtr revIDLastSave="182" documentId="13_ncr:1_{92890B4E-F2D8-4A95-A81A-A6B692DFF53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA332D14-2C7F-4CD3-930F-D8A2739819E3}"/>
   <bookViews>
-    <workbookView xWindow="12675" yWindow="5715" windowWidth="38700" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6885" yWindow="5715" windowWidth="38700" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="100">
   <si>
     <t>MyOriginsWorkshop (Aqwam Harish Aiman)</t>
   </si>
@@ -329,13 +329,7 @@
     <t>Average Training Time Per Data Point Per Iteration For Neural Networks (In Seconds)</t>
   </si>
   <si>
-    <t>Average Training Speed Per Data Point Per Iteration For Neural Networks (In Data Point Per Seconds) (On CPU)</t>
-  </si>
-  <si>
     <t>Average Training Time Per Data Point When Batched Per Iteration For Neural Networks (In Seconds) (On CPU)</t>
-  </si>
-  <si>
-    <t>Average Training Speed Per Data Point When Batched Per Iteration For Neural Networks (In Data Point Per Seconds) (On CPU)</t>
   </si>
   <si>
     <t>Speedup Factor Per Data Point When Batched For Neural Networks (On CPU)</t>
@@ -690,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1258,51 +1252,51 @@
         <v>97</v>
       </c>
       <c r="B25" s="1">
-        <f xml:space="preserve"> 1 / B24</f>
-        <v>37341.178124271974</v>
+        <v>6.3085109044914998E-6</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" ref="C25:G25" si="0" xml:space="preserve"> 1 / C24</f>
-        <v>7517.4170074231624</v>
+        <v>2.8364474897272601E-5</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="0"/>
-        <v>28063.918243049444</v>
+        <v>3.1779647300019698E-5</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="0"/>
-        <v>250574.31607837928</v>
+        <v>2.56268959649605E-6</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="0"/>
-        <v>1.0000000001E-10</v>
+        <v>9999999999</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="0"/>
-        <v>272530.50872851704</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>1.4354445003846001E-6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B26" s="1">
-        <v>6.3085109044914998E-6</v>
+        <f xml:space="preserve"> B24 / B25</f>
+        <v>4.2450726385710071</v>
       </c>
       <c r="C26" s="1">
-        <v>2.8364474897272601E-5</v>
+        <f t="shared" ref="C26:G26" si="0" xml:space="preserve"> C24 / C25</f>
+        <v>4.6898247021512827</v>
       </c>
       <c r="D26" s="1">
-        <v>3.1779647300019698E-5</v>
+        <f t="shared" si="0"/>
+        <v>1.1212504246907427</v>
       </c>
       <c r="E26" s="1">
-        <v>2.56268959649605E-6</v>
+        <f t="shared" si="0"/>
+        <v>1.5572826336488355</v>
       </c>
       <c r="F26" s="1">
-        <v>9999999999</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G26" s="1">
-        <v>1.4354445003846001E-6</v>
+        <f t="shared" si="0"/>
+        <v>2.5562214061709505</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1310,231 +1304,173 @@
         <v>99</v>
       </c>
       <c r="B27" s="1">
-        <f xml:space="preserve"> 1 / B26</f>
-        <v>158516.01354735321</v>
+        <f xml:space="preserve"> ((B26 - $B$26) / $B$26) * 100</f>
+        <v>0</v>
       </c>
       <c r="C27" s="1">
-        <f xml:space="preserve"> 1 / C26</f>
-        <v>35255.367977785318</v>
+        <f t="shared" ref="C27:G27" si="1" xml:space="preserve"> ((C26 - $B$26) / $B$26) * 100</f>
+        <v>10.476901138021272</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" ref="D27:G27" si="1" xml:space="preserve"> 1 / D26</f>
-        <v>31466.680248505469</v>
+        <f t="shared" si="1"/>
+        <v>-73.587014401049629</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="1"/>
-        <v>390215.03086729423</v>
+        <v>-63.315524462425834</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="1"/>
-        <v>1.0000000001E-10</v>
+        <v>-76.44327706164708</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="1"/>
-        <v>696648.32024649438</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>-39.783800565744016</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B28" s="1">
-        <f xml:space="preserve"> (B27 / B25)</f>
-        <v>4.2450726385710071</v>
-      </c>
-      <c r="C28" s="1">
-        <f t="shared" ref="C28:G28" si="2" xml:space="preserve"> (C27 / C25)</f>
-        <v>4.6898247021512827</v>
-      </c>
-      <c r="D28" s="1">
-        <f t="shared" si="2"/>
-        <v>1.1212504246907427</v>
-      </c>
-      <c r="E28" s="1">
-        <f t="shared" si="2"/>
-        <v>1.5572826336488355</v>
-      </c>
-      <c r="F28" s="1">
-        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G28" s="1">
-        <f t="shared" si="2"/>
-        <v>2.5562214061709505</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29" s="1">
-        <f xml:space="preserve"> ((B28 - $B$28) / $B$28) * 100</f>
-        <v>0</v>
-      </c>
-      <c r="C29" s="1">
-        <f t="shared" ref="C29:G29" si="3" xml:space="preserve"> ((C28 - $B$28) / $B$28) * 100</f>
-        <v>10.476901138021272</v>
-      </c>
-      <c r="D29" s="1">
-        <f t="shared" si="3"/>
-        <v>-73.587014401049629</v>
-      </c>
-      <c r="E29" s="1">
-        <f t="shared" si="3"/>
-        <v>-63.315524462425834</v>
-      </c>
-      <c r="F29" s="1">
-        <f t="shared" si="3"/>
-        <v>-76.44327706164708</v>
-      </c>
-      <c r="G29" s="1">
-        <f t="shared" si="3"/>
-        <v>-39.783800565744016</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="D30" s="1" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3" t="s">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D35" r:id="rId1" xr:uid="{A66A01FB-1F16-4053-A570-CA0C4DBDF415}"/>
-    <hyperlink ref="E35" r:id="rId2" xr:uid="{AD79AAC9-FDFD-4009-81F4-FA40C8D6ECDF}"/>
-    <hyperlink ref="F35" r:id="rId3" xr:uid="{A80DFB7D-C1E4-4C21-BBF3-8E03E5A7A842}"/>
-    <hyperlink ref="G35" r:id="rId4" xr:uid="{3082FEF1-B38E-4027-9BFC-E14EA8C613F9}"/>
-    <hyperlink ref="B35" r:id="rId5" xr:uid="{D7820418-7FB7-4E62-9DFF-6F7D558EE0C8}"/>
+    <hyperlink ref="D33" r:id="rId1" xr:uid="{A66A01FB-1F16-4053-A570-CA0C4DBDF415}"/>
+    <hyperlink ref="E33" r:id="rId2" xr:uid="{AD79AAC9-FDFD-4009-81F4-FA40C8D6ECDF}"/>
+    <hyperlink ref="F33" r:id="rId3" xr:uid="{A80DFB7D-C1E4-4C21-BBF3-8E03E5A7A842}"/>
+    <hyperlink ref="G33" r:id="rId4" xr:uid="{3082FEF1-B38E-4027-9BFC-E14EA8C613F9}"/>
+    <hyperlink ref="B33" r:id="rId5" xr:uid="{D7820418-7FB7-4E62-9DFF-6F7D558EE0C8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>

--- a/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
+++ b/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/540fc2d1f3f267b1/Documents/GitHub/Software-Libraries-Comparisons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="182" documentId="13_ncr:1_{92890B4E-F2D8-4A95-A81A-A6B692DFF53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA332D14-2C7F-4CD3-930F-D8A2739819E3}"/>
+  <xr:revisionPtr revIDLastSave="186" documentId="13_ncr:1_{92890B4E-F2D8-4A95-A81A-A6B692DFF53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A09C2D08-E374-4A72-8CD4-B3BE9B9BE7A5}"/>
   <bookViews>
     <workbookView xWindow="6885" yWindow="5715" windowWidth="38700" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -686,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
+++ b/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/540fc2d1f3f267b1/Documents/GitHub/Software-Libraries-Comparisons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="186" documentId="13_ncr:1_{92890B4E-F2D8-4A95-A81A-A6B692DFF53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A09C2D08-E374-4A72-8CD4-B3BE9B9BE7A5}"/>
+  <xr:revisionPtr revIDLastSave="188" documentId="13_ncr:1_{92890B4E-F2D8-4A95-A81A-A6B692DFF53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3EFE3B4-5344-42F8-8393-553E65169669}"/>
   <bookViews>
     <workbookView xWindow="6885" yWindow="5715" windowWidth="38700" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,9 +128,6 @@
     <t>License</t>
   </si>
   <si>
-    <t>Custom License - Limited Commercial Use</t>
-  </si>
-  <si>
     <t>MIT License</t>
   </si>
   <si>
@@ -336,6 +333,9 @@
   </si>
   <si>
     <t>Relative Speedup Factor Per Data Point When Batched For Neural Networks When Compared With DataPredict Library (In Percentage) (On CPU)</t>
+  </si>
+  <si>
+    <t>Limited Commercial Use License</t>
   </si>
 </sst>
 </file>
@@ -687,7 +687,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -697,7 +697,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -706,7 +706,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -720,7 +720,7 @@
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -743,13 +743,13 @@
     </row>
     <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -766,13 +766,13 @@
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
@@ -792,7 +792,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -807,7 +807,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -815,39 +815,39 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>12</v>
@@ -858,13 +858,13 @@
     </row>
     <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>12</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
@@ -904,30 +904,30 @@
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B11" s="1">
         <v>2</v>
@@ -936,44 +936,44 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
@@ -982,16 +982,16 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -999,22 +999,22 @@
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -1022,19 +1022,19 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>12</v>
@@ -1045,10 +1045,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>11</v>
@@ -1068,22 +1068,22 @@
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1091,13 +1091,13 @@
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>12</v>
@@ -1140,16 +1140,16 @@
         <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>24</v>
@@ -1180,13 +1180,13 @@
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>11</v>
@@ -1203,13 +1203,13 @@
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>11</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B24" s="1">
         <v>2.6780087030783701E-5</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B25" s="1">
         <v>6.3085109044914998E-6</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B26" s="1">
         <f xml:space="preserve"> B24 / B25</f>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B27" s="1">
         <f xml:space="preserve"> ((B26 - $B$26) / $B$26) * 100</f>
@@ -1333,16 +1333,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>11</v>
@@ -1368,15 +1368,15 @@
         <v>28</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>2</v>
@@ -1402,19 +1402,19 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="E31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>12</v>
@@ -1422,46 +1422,46 @@
     </row>
     <row r="32" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="G33" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
+++ b/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/540fc2d1f3f267b1/Documents/GitHub/Software-Libraries-Comparisons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="188" documentId="13_ncr:1_{92890B4E-F2D8-4A95-A81A-A6B692DFF53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3EFE3B4-5344-42F8-8393-553E65169669}"/>
+  <xr:revisionPtr revIDLastSave="189" documentId="13_ncr:1_{92890B4E-F2D8-4A95-A81A-A6B692DFF53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED6B61F8-0970-469F-8D0F-0D5B101E1C3C}"/>
   <bookViews>
-    <workbookView xWindow="6885" yWindow="5715" windowWidth="38700" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5235" yWindow="5715" windowWidth="38700" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -302,9 +302,6 @@
     <t>None (The Creator Claims No License Is Considered As Open Source. In Reality, Default Copyright Laws Applies When Source Codes Has No License. Use At Your Own Risk.)</t>
   </si>
   <si>
-    <t>High. In-Built By Default.</t>
-  </si>
-  <si>
     <t>Multi-Threading Compatibility</t>
   </si>
   <si>
@@ -336,6 +333,9 @@
   </si>
   <si>
     <t>Limited Commercial Use License</t>
+  </si>
+  <si>
+    <t>High. Built-In By Default.</t>
   </si>
 </sst>
 </file>
@@ -686,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1045,10 +1045,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>11</v>
@@ -1180,13 +1180,13 @@
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>11</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>86</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B24" s="1">
         <v>2.6780087030783701E-5</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B25" s="1">
         <v>6.3085109044914998E-6</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B26" s="1">
         <f xml:space="preserve"> B24 / B25</f>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B27" s="1">
         <f xml:space="preserve"> ((B26 - $B$26) / $B$26) * 100</f>
@@ -1402,10 +1402,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>30</v>
@@ -1422,7 +1422,7 @@
     </row>
     <row r="32" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>38</v>
@@ -1434,13 +1434,13 @@
         <v>52</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>56</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">

--- a/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
+++ b/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/540fc2d1f3f267b1/Documents/GitHub/Software-Libraries-Comparisons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="189" documentId="13_ncr:1_{92890B4E-F2D8-4A95-A81A-A6B692DFF53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED6B61F8-0970-469F-8D0F-0D5B101E1C3C}"/>
+  <xr:revisionPtr revIDLastSave="190" documentId="13_ncr:1_{92890B4E-F2D8-4A95-A81A-A6B692DFF53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56B6F134-4007-4440-92FC-BA14FC0A642B}"/>
   <bookViews>
     <workbookView xWindow="5235" yWindow="5715" windowWidth="38700" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -149,9 +149,6 @@
     <t>Medium (Must Define The Input And Output Names. The Inputs And Outputs Must Stored As Dictionary.)</t>
   </si>
   <si>
-    <t>Library Name</t>
-  </si>
-  <si>
     <t>Transparent About Features, Limitations And Issues To The Public. Actively Maintained With A Strong Commitment To QA. If Any Promised Development Will Not Be Added, The Public Will Be Informed.</t>
   </si>
   <si>
@@ -336,6 +333,9 @@
   </si>
   <si>
     <t>High. Built-In By Default.</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -686,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -697,7 +697,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -706,7 +706,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>4</v>
@@ -720,7 +720,7 @@
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -743,13 +743,13 @@
     </row>
     <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -766,13 +766,13 @@
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
@@ -792,7 +792,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -807,7 +807,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="90" x14ac:dyDescent="0.25">
@@ -815,22 +815,22 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -838,16 +838,16 @@
         <v>31</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>12</v>
@@ -861,10 +861,10 @@
         <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>12</v>
@@ -881,7 +881,7 @@
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
@@ -904,30 +904,30 @@
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="1">
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B11" s="1">
         <v>2</v>
@@ -936,44 +936,44 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" s="1">
         <v>2</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B13" s="1">
         <v>2</v>
@@ -982,16 +982,16 @@
         <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -999,22 +999,22 @@
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" x14ac:dyDescent="0.25">
@@ -1022,19 +1022,19 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>12</v>
@@ -1045,10 +1045,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>11</v>
@@ -1068,22 +1068,22 @@
         <v>17</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1091,10 +1091,10 @@
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>33</v>
@@ -1140,16 +1140,16 @@
         <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>24</v>
@@ -1180,13 +1180,13 @@
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>11</v>
@@ -1203,13 +1203,13 @@
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>11</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B24" s="1">
         <v>2.6780087030783701E-5</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B25" s="1">
         <v>6.3085109044914998E-6</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B26" s="1">
         <f xml:space="preserve"> B24 / B25</f>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B27" s="1">
         <f xml:space="preserve"> ((B26 - $B$26) / $B$26) * 100</f>
@@ -1333,16 +1333,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>11</v>
@@ -1402,16 +1402,16 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>30</v>
@@ -1422,46 +1422,46 @@
     </row>
     <row r="32" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="G33" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
+++ b/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/540fc2d1f3f267b1/Documents/GitHub/Software-Libraries-Comparisons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="190" documentId="13_ncr:1_{92890B4E-F2D8-4A95-A81A-A6B692DFF53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56B6F134-4007-4440-92FC-BA14FC0A642B}"/>
+  <xr:revisionPtr revIDLastSave="191" documentId="13_ncr:1_{92890B4E-F2D8-4A95-A81A-A6B692DFF53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24F1B5F3-E524-4691-84A8-970699FADD35}"/>
   <bookViews>
-    <workbookView xWindow="5235" yWindow="5715" windowWidth="38700" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -302,9 +302,6 @@
     <t>Multi-Threading Compatibility</t>
   </si>
   <si>
-    <t xml:space="preserve"> Multi-Process Compatibility</t>
-  </si>
-  <si>
     <t>Developer Integrity Comments</t>
   </si>
   <si>
@@ -336,6 +333,9 @@
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t>Multi-Process Compatibility</t>
   </si>
 </sst>
 </file>
@@ -687,7 +687,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:G33"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -697,7 +697,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1045,10 +1045,10 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>11</v>
@@ -1186,7 +1186,7 @@
         <v>85</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>11</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>85</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B24" s="1">
         <v>2.6780087030783701E-5</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B25" s="1">
         <v>6.3085109044914998E-6</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B26" s="1">
         <f xml:space="preserve"> B24 / B25</f>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B27" s="1">
         <f xml:space="preserve"> ((B26 - $B$26) / $B$26) * 100</f>
@@ -1402,10 +1402,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>30</v>
@@ -1422,7 +1422,7 @@
     </row>
     <row r="32" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>37</v>
@@ -1434,13 +1434,13 @@
         <v>51</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">

--- a/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
+++ b/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/540fc2d1f3f267b1/Documents/GitHub/Software-Libraries-Comparisons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="191" documentId="13_ncr:1_{92890B4E-F2D8-4A95-A81A-A6B692DFF53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24F1B5F3-E524-4691-84A8-970699FADD35}"/>
+  <xr:revisionPtr revIDLastSave="192" documentId="13_ncr:1_{92890B4E-F2D8-4A95-A81A-A6B692DFF53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CA7393F-9332-48E5-9AE8-AFF28BF26A6A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -314,9 +314,6 @@
     <t>Immediate Bug Fix. If Paid User, Then Feature And Bug Fix Requests From Them Will Be Prioritized First.</t>
   </si>
   <si>
-    <t>Average Training Time Per Data Point Per Iteration For Neural Networks (In Seconds)</t>
-  </si>
-  <si>
     <t>Average Training Time Per Data Point When Batched Per Iteration For Neural Networks (In Seconds) (On CPU)</t>
   </si>
   <si>
@@ -336,6 +333,9 @@
   </si>
   <si>
     <t>Multi-Process Compatibility</t>
+  </si>
+  <si>
+    <t>Average Training Time Per Data Point Per Iteration For Neural Networks (In Seconds) (On CPU)</t>
   </si>
 </sst>
 </file>
@@ -687,7 +687,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -697,7 +697,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1186,7 +1186,7 @@
         <v>85</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>11</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>85</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="B24" s="1">
         <v>2.6780087030783701E-5</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B25" s="1">
         <v>6.3085109044914998E-6</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B26" s="1">
         <f xml:space="preserve"> B24 / B25</f>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B27" s="1">
         <f xml:space="preserve"> ((B26 - $B$26) / $B$26) * 100</f>
@@ -1402,10 +1402,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>30</v>

--- a/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
+++ b/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/540fc2d1f3f267b1/Documents/GitHub/Software-Libraries-Comparisons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="192" documentId="13_ncr:1_{92890B4E-F2D8-4A95-A81A-A6B692DFF53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CA7393F-9332-48E5-9AE8-AFF28BF26A6A}"/>
+  <xr:revisionPtr revIDLastSave="193" documentId="13_ncr:1_{92890B4E-F2D8-4A95-A81A-A6B692DFF53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{731971DB-2BBB-48FF-A9D1-D8B699D8EDFA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="99">
   <si>
     <t>MyOriginsWorkshop (Aqwam Harish Aiman)</t>
   </si>
@@ -327,9 +327,6 @@
   </si>
   <si>
     <t>High. Built-In By Default.</t>
-  </si>
-  <si>
-    <t>c</t>
   </si>
   <si>
     <t>Multi-Process Compatibility</t>
@@ -687,7 +684,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -696,9 +693,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>97</v>
-      </c>
+      <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1203,7 +1198,7 @@
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>85</v>
@@ -1226,7 +1221,7 @@
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B24" s="1">
         <v>2.6780087030783701E-5</v>

--- a/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
+++ b/Comparisons Of Machine Learning, Deep Learning And Reinforcement Learning Libraries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/540fc2d1f3f267b1/Documents/GitHub/Software-Libraries-Comparisons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="193" documentId="13_ncr:1_{92890B4E-F2D8-4A95-A81A-A6B692DFF53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{731971DB-2BBB-48FF-A9D1-D8B699D8EDFA}"/>
+  <xr:revisionPtr revIDLastSave="210" documentId="13_ncr:1_{92890B4E-F2D8-4A95-A81A-A6B692DFF53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A74329A-2DBE-44EE-8976-8686B2CC6B1D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13845" yWindow="4365" windowWidth="38700" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.7109375" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1224,22 +1224,22 @@
         <v>98</v>
       </c>
       <c r="B24" s="1">
-        <v>2.6780087030783701E-5</v>
+        <v>2.9376656191889099E-5</v>
       </c>
       <c r="C24" s="1">
-        <v>1.3302441503677901E-4</v>
+        <v>1.3453018333762801E-4</v>
       </c>
       <c r="D24" s="1">
-        <v>3.5632943031669098E-5</v>
+        <v>3.8851269045844602E-5</v>
       </c>
       <c r="E24" s="1">
-        <v>3.9908320040558402E-6</v>
+        <v>4.3037610431201699E-6</v>
       </c>
       <c r="F24" s="1">
         <v>9999999999</v>
       </c>
       <c r="G24" s="1">
-        <v>3.6693139592534802E-6</v>
+        <v>4.0399013902060596E-6</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1247,22 +1247,22 @@
         <v>92</v>
       </c>
       <c r="B25" s="1">
-        <v>6.3085109044914998E-6</v>
+        <v>7.12924181693236E-6</v>
       </c>
       <c r="C25" s="1">
-        <v>2.8364474897272601E-5</v>
+        <v>3.1637013884959699E-5</v>
       </c>
       <c r="D25" s="1">
-        <v>3.1779647300019698E-5</v>
+        <v>3.5333456798223801E-5</v>
       </c>
       <c r="E25" s="1">
-        <v>2.56268959649605E-6</v>
+        <v>2.97271632682536E-6</v>
       </c>
       <c r="F25" s="1">
         <v>9999999999</v>
       </c>
       <c r="G25" s="1">
-        <v>1.4354445003846001E-6</v>
+        <v>1.62664188514464E-6</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -1271,19 +1271,19 @@
       </c>
       <c r="B26" s="1">
         <f xml:space="preserve"> B24 / B25</f>
-        <v>4.2450726385710071</v>
+        <v>4.1205863044395334</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" ref="C26:G26" si="0" xml:space="preserve"> C24 / C25</f>
-        <v>4.6898247021512827</v>
+        <v>4.2523034514829456</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="0"/>
-        <v>1.1212504246907427</v>
+        <v>1.0995603760965058</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="0"/>
-        <v>1.5572826336488355</v>
+        <v>1.4477536939141</v>
       </c>
       <c r="F26" s="1">
         <f t="shared" si="0"/>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="G26" s="1">
         <f t="shared" si="0"/>
-        <v>2.5562214061709505</v>
+        <v>2.483583772863954</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -1304,23 +1304,23 @@
       </c>
       <c r="C27" s="1">
         <f t="shared" ref="C27:G27" si="1" xml:space="preserve"> ((C26 - $B$26) / $B$26) * 100</f>
-        <v>10.476901138021272</v>
+        <v>3.1965632391074958</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="1"/>
-        <v>-73.587014401049629</v>
+        <v>-73.315438754144381</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="1"/>
-        <v>-63.315524462425834</v>
+        <v>-64.865347138724289</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="1"/>
-        <v>-76.44327706164708</v>
+        <v>-75.731608899379282</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="1"/>
-        <v>-39.783800565744016</v>
+        <v>-39.727417668982383</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
